--- a/biology/Botanique/Ernst_Adolf_Räuschel/Ernst_Adolf_Räuschel.xlsx
+++ b/biology/Botanique/Ernst_Adolf_Räuschel/Ernst_Adolf_Räuschel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ernst_Adolf_R%C3%A4uschel</t>
+          <t>Ernst_Adolf_Räuschel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernst Adolf Raeuschel (1740-1800) était un lichénologue allemand, actif entre 1772 et 1797, spécialisé dans les bryophytes et les spermatophytes[1],[2]. Parfois orthographié Rauschel.
-Il est l'auteur de Nomenclator botanicus omnes plantas : ab illustr. Carolo a Linné descriptas aliisque botanicis temporis recentioris detectas enumerans. Certaines des espèces végétales décrites par Raeuschel comprennent Allophylus cobbe, Callicarpa dichotoma et Elephantopus carolinianus[3],[4],[5]. Le stereocaulon ramulosum est décrit par Raeuschel en 1797[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernst Adolf Raeuschel (1740-1800) était un lichénologue allemand, actif entre 1772 et 1797, spécialisé dans les bryophytes et les spermatophytes,. Parfois orthographié Rauschel.
+Il est l'auteur de Nomenclator botanicus omnes plantas : ab illustr. Carolo a Linné descriptas aliisque botanicis temporis recentioris detectas enumerans. Certaines des espèces végétales décrites par Raeuschel comprennent Allophylus cobbe, Callicarpa dichotoma et Elephantopus carolinianus. Le stereocaulon ramulosum est décrit par Raeuschel en 1797.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ernst_Adolf_R%C3%A4uschel</t>
+          <t>Ernst_Adolf_Räuschel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nomenclator botanicus omnes plantas ab illust. C. a Linné descriptas aliisque botanicis... detectas enumerans, Editio tertia, Lipsiae, 1797.</t>
         </is>
